--- a/src/테이블명세서.xlsx
+++ b/src/테이블명세서.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\db\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16440" tabRatio="829" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16440" tabRatio="829" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
   <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="169">
   <si>
     <t>관리자권한여부</t>
   </si>
@@ -593,10 +598,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Member</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 정보 테이블</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1061,94 +1062,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>아바타</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>avt</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>EFERENCES avatar(ano)</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.04.04</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avatar</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>아바타 정보 테이블</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>아바타 이름</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>원이름</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장이름</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장경로</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일크기</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ano</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>aname</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>savename</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>oriname</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dir</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>len</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>isshow</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1157,35 +1074,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>15 CHAR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 CHAR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 CHAR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장날짜</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>adate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>DATE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysdate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHECK IN('Y', 'N'), Y: 사용, N: 삭제</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1252,11 +1141,39 @@
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>부서번호</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서이름</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서위치</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPTNO</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNAME</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -2348,6 +2265,60 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2387,58 +2358,55 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2478,57 +2446,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2835,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:E33"/>
   <sheetViews>
@@ -2900,7 +2817,7 @@
       </c>
       <c r="D9" s="79"/>
       <c r="E9" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="3:5" s="1" customFormat="1">
@@ -2970,10 +2887,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="64" t="s">
         <v>141</v>
-      </c>
-      <c r="E17" s="64" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -3106,7 +3023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:D19"/>
   <sheetViews>
@@ -3177,10 +3094,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>143</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -3271,14 +3188,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3299,78 +3216,70 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -3415,20 +3324,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="23">
-        <v>4</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>120</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="22"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -3441,23 +3344,17 @@
         <v>2</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>114</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="35" t="s">
-        <v>120</v>
-      </c>
+      <c r="J8" s="35"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="25"/>
@@ -3467,25 +3364,17 @@
         <v>3</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>115</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>120</v>
-      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="25"/>
@@ -3494,24 +3383,14 @@
       <c r="B10" s="57">
         <v>4</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>115</v>
-      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="35" t="s">
-        <v>120</v>
-      </c>
+      <c r="J10" s="35"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="25"/>
@@ -3521,26 +3400,14 @@
       <c r="B11" s="57">
         <v>5</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>116</v>
-      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>120</v>
-      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="26"/>
       <c r="L11" s="17"/>
       <c r="M11" s="25"/>
@@ -3549,149 +3416,81 @@
       <c r="B12" s="57">
         <v>6</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>117</v>
-      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>120</v>
-      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="26"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="51" t="s">
-        <v>122</v>
-      </c>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="57">
         <v>7</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="69">
-        <v>2</v>
-      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="35" t="s">
-        <v>120</v>
-      </c>
+      <c r="J13" s="35"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="51" t="s">
-        <v>149</v>
-      </c>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="57">
         <v>8</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="24">
-        <v>1</v>
-      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>120</v>
-      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="51" t="s">
-        <v>123</v>
-      </c>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="57">
         <v>9</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>127</v>
-      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="J15" s="40"/>
       <c r="K15" s="42"/>
-      <c r="L15" s="40" t="s">
-        <v>128</v>
-      </c>
+      <c r="L15" s="40"/>
       <c r="M15" s="50"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="57">
         <v>10</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="39">
-        <v>1</v>
-      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
-      <c r="J16" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="M16" s="72" t="s">
-        <v>124</v>
-      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="72"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="57">
@@ -3855,43 +3654,48 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -3900,11 +3704,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -3913,14 +3712,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D27" sqref="D27:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3941,78 +3740,68 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -4056,21 +3845,11 @@
       <c r="B7" s="56">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="23">
-        <v>2</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>51</v>
-      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="22"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
@@ -4082,24 +3861,14 @@
       <c r="B8" s="57">
         <v>2</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>167</v>
-      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="J8" s="35"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="25"/>
@@ -4108,24 +3877,14 @@
       <c r="B9" s="57">
         <v>3</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>168</v>
-      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="J9" s="35"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="25"/>
@@ -4134,26 +3893,14 @@
       <c r="B10" s="57">
         <v>4</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>168</v>
-      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="25"/>
@@ -4163,24 +3910,14 @@
       <c r="B11" s="57">
         <v>5</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>169</v>
-      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="J11" s="35"/>
       <c r="K11" s="26"/>
       <c r="L11" s="17"/>
       <c r="M11" s="25"/>
@@ -4189,22 +3926,14 @@
       <c r="B12" s="57">
         <v>6</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>148</v>
-      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="69"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="J12" s="35"/>
       <c r="K12" s="26"/>
       <c r="L12" s="17"/>
       <c r="M12" s="51"/>
@@ -4213,59 +3942,33 @@
       <c r="B13" s="57">
         <v>7</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>172</v>
-      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="69"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="35" t="s">
-        <v>173</v>
-      </c>
+      <c r="L13" s="35"/>
       <c r="M13" s="49"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="57">
         <v>8</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="69">
-        <v>1</v>
-      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="51" t="s">
-        <v>174</v>
-      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="57">
@@ -4461,43 +4164,44 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -4506,11 +4210,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -4519,7 +4218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
@@ -4546,78 +4245,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -4662,19 +4361,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="23">
         <v>4</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="33"/>
@@ -4688,22 +4387,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="69" t="s">
         <v>113</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>114</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -4714,24 +4413,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -4742,22 +4441,22 @@
         <v>4</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -4769,24 +4468,24 @@
         <v>5</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="17"/>
@@ -4797,29 +4496,29 @@
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="17"/>
       <c r="M12" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -4827,22 +4526,22 @@
         <v>7</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -4853,13 +4552,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="24">
         <v>1</v>
@@ -4868,14 +4567,14 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -4883,24 +4582,24 @@
         <v>9</v>
       </c>
       <c r="C15" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="E15" s="40" t="s">
         <v>126</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>127</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M15" s="50"/>
     </row>
@@ -4909,13 +4608,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" s="39">
         <v>1</v>
@@ -4924,16 +4623,16 @@
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>121</v>
-      </c>
       <c r="M16" s="72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -5098,51 +4797,46 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
     <row r="34" spans="5:5">
       <c r="E34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -5151,6 +4845,11 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -5159,7 +4858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
@@ -5187,74 +4886,74 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -5300,7 +4999,7 @@
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="23"/>
@@ -5320,7 +5019,7 @@
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="69"/>
@@ -5338,7 +5037,7 @@
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="69"/>
@@ -5353,7 +5052,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -5362,7 +5061,7 @@
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="69"/>
@@ -5381,7 +5080,7 @@
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="69"/>
@@ -5399,7 +5098,7 @@
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="69"/>
@@ -5419,7 +5118,7 @@
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="69"/>
@@ -5437,7 +5136,7 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="24"/>
@@ -5457,7 +5156,7 @@
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="70"/>
@@ -5467,7 +5166,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="42"/>
       <c r="L15" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M15" s="72"/>
     </row>
@@ -5649,48 +5348,43 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -5699,6 +5393,11 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -5707,13 +5406,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:M11"/>
     </sheetView>
   </sheetViews>
@@ -5735,78 +5434,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -5851,13 +5550,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F7" s="23">
         <v>4</v>
@@ -5877,13 +5576,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F8" s="69">
         <v>4</v>
@@ -5901,7 +5600,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -5909,13 +5608,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F9" s="69">
         <v>4000</v>
@@ -5935,13 +5634,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="17"/>
@@ -5962,13 +5661,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="69">
         <v>1</v>
@@ -5983,10 +5682,10 @@
         <v>51</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="M11" s="51" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -6231,48 +5930,43 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -6281,6 +5975,11 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -6289,7 +5988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
@@ -6317,74 +6016,74 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="115"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1">
       <c r="B6" s="53" t="s">
@@ -6747,48 +6446,43 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -6797,6 +6491,11 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -6805,7 +6504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
@@ -6830,74 +6529,74 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="133"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="138"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="125"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="140" t="s">
+      <c r="C4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="140"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="145"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="132"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="118"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="135"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1">
       <c r="B6" s="47" t="s">
@@ -7406,43 +7105,48 @@
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="121" t="s">
+      <c r="C27" s="137"/>
+      <c r="D27" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="123"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="140"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1">
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="126" t="s">
+      <c r="C28" s="142"/>
+      <c r="D28" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="128"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -7451,11 +7155,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
